--- a/KAW_BE_v2/layer_definition.xlsx
+++ b/KAW_BE_v2/layer_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\strerik\SELMA\KAW_BE_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E053EB3-E71C-47D3-B9AB-CE510B71859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCDA13-2060-4A21-A814-3EBA70FFC054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>

--- a/KAW_BE_v2/layer_definition.xlsx
+++ b/KAW_BE_v2/layer_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\strerik\SELMA\KAW_BE_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCDA13-2060-4A21-A814-3EBA70FFC054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54185FA4-F64E-4AE3-A9D3-200CFB4EA1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
